--- a/data/Vesuvius.xlsx
+++ b/data/Vesuvius.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
   <si>
     <t xml:space="preserve">srart_date</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">Uncertain</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Summit and south flank</t>
@@ -263,21 +260,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="6.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -297,24 +294,21 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -327,8 +321,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>-217</v>
       </c>
     </row>
@@ -348,22 +341,21 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="n">
+      <c r="F3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5"/>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="0" t="n">
+        <v>79</v>
+      </c>
       <c r="J3" s="0" t="n">
-        <v>79</v>
+        <f aca="false">I3-I2</f>
+        <v>296</v>
       </c>
       <c r="K3" s="0" t="n">
-        <f aca="false">J3-J2</f>
-        <v>296</v>
-      </c>
-      <c r="L3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -383,20 +375,19 @@
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="n">
+      <c r="F4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="0" t="n">
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="0" t="n">
         <f aca="false">YEAR(A4)</f>
         <v>472</v>
       </c>
-      <c r="K4" s="0" t="n">
-        <f aca="false">J4-J3</f>
+      <c r="J4" s="0" t="n">
+        <f aca="false">I4-I3</f>
         <v>393</v>
       </c>
     </row>
@@ -414,19 +405,18 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="2" t="n">
+      <c r="F5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5"/>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="0" t="n">
+        <v>505</v>
+      </c>
       <c r="J5" s="0" t="n">
-        <v>505</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <f aca="false">J5-J4</f>
+        <f aca="false">I5-I4</f>
         <v>33</v>
       </c>
     </row>
@@ -444,20 +434,19 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="0" t="n">
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="0" t="n">
         <f aca="false">YEAR(A6)</f>
         <v>512</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <f aca="false">J6-J5</f>
+      <c r="J6" s="0" t="n">
+        <f aca="false">I6-I5</f>
         <v>7</v>
       </c>
     </row>
@@ -477,23 +466,22 @@
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="n">
+      <c r="F7" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="0" t="n">
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="0" t="n">
         <f aca="false">YEAR(A7)</f>
         <v>685</v>
       </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">I7-I6</f>
+        <v>173</v>
+      </c>
       <c r="K7" s="0" t="n">
-        <f aca="false">J7-J6</f>
-        <v>173</v>
-      </c>
-      <c r="L7" s="0" t="n">
         <f aca="false">C7-A7</f>
         <v>28</v>
       </c>
@@ -514,22 +502,21 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="n">
-        <v>3</v>
+      <c r="F8" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <f aca="false">YEAR(A8)</f>
         <v>787</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <f aca="false">J8-J7</f>
+      <c r="J8" s="0" t="n">
+        <f aca="false">I8-I7</f>
         <v>102</v>
       </c>
     </row>
@@ -547,19 +534,18 @@
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="5"/>
+      <c r="F9" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="0" t="n">
+        <v>1006</v>
+      </c>
       <c r="J9" s="0" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <f aca="false">J9-J8</f>
+        <f aca="false">I9-I8</f>
         <v>219</v>
       </c>
     </row>
@@ -577,22 +563,21 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="n">
-        <v>3</v>
+      <c r="F10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <f aca="false">YEAR(A10)</f>
         <v>1037</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <f aca="false">J10-J9</f>
+      <c r="J10" s="0" t="n">
+        <f aca="false">I10-I9</f>
         <v>31</v>
       </c>
     </row>
@@ -612,23 +597,22 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="0" t="n">
+      <c r="F11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="0" t="n">
         <f aca="false">YEAR(A11)</f>
         <v>1139</v>
       </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">I11-I10</f>
+        <v>102</v>
+      </c>
       <c r="K11" s="0" t="n">
-        <f aca="false">J11-J10</f>
-        <v>102</v>
-      </c>
-      <c r="L11" s="0" t="n">
         <f aca="false">C11-A11</f>
         <v>8</v>
       </c>
@@ -649,25 +633,24 @@
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="n">
+      <c r="F12" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <f aca="false">YEAR(A12)</f>
         <v>1631</v>
       </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">I12-I11</f>
+        <v>492</v>
+      </c>
       <c r="K12" s="0" t="n">
-        <f aca="false">J12-J11</f>
-        <v>492</v>
-      </c>
-      <c r="L12" s="0" t="n">
         <f aca="false">C12-A12</f>
         <v>46</v>
       </c>
@@ -688,23 +671,22 @@
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="n">
+      <c r="F13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="0" t="n">
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="0" t="n">
         <f aca="false">YEAR(A13)</f>
         <v>1637</v>
       </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">I13-I12</f>
+        <v>6</v>
+      </c>
       <c r="K13" s="0" t="n">
-        <f aca="false">J13-J12</f>
-        <v>6</v>
-      </c>
-      <c r="L13" s="0" t="n">
         <f aca="false">C13-A13</f>
         <v>5646</v>
       </c>
@@ -725,23 +707,22 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="0" t="n">
+      <c r="F14" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="0" t="n">
         <f aca="false">YEAR(A14)</f>
         <v>1654</v>
       </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">I14-I13</f>
+        <v>17</v>
+      </c>
       <c r="K14" s="0" t="n">
-        <f aca="false">J14-J13</f>
-        <v>17</v>
-      </c>
-      <c r="L14" s="0" t="n">
         <f aca="false">C14-A14</f>
         <v>9528</v>
       </c>
@@ -762,23 +743,22 @@
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="0" t="n">
+      <c r="F15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="0" t="n">
         <f aca="false">YEAR(A15)</f>
         <v>1682</v>
       </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">I15-I14</f>
+        <v>28</v>
+      </c>
       <c r="K15" s="0" t="n">
-        <f aca="false">J15-J14</f>
-        <v>28</v>
-      </c>
-      <c r="L15" s="0" t="n">
         <f aca="false">C15-A15</f>
         <v>10</v>
       </c>
@@ -799,23 +779,22 @@
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="0" t="n">
+      <c r="F16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="0" t="n">
         <f aca="false">YEAR(A16)</f>
         <v>1685</v>
       </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">I16-I15</f>
+        <v>3</v>
+      </c>
       <c r="K16" s="0" t="n">
-        <f aca="false">J16-J15</f>
-        <v>3</v>
-      </c>
-      <c r="L16" s="0" t="n">
         <f aca="false">C16-A16</f>
         <v>3130</v>
       </c>
@@ -836,23 +815,22 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="n">
+      <c r="F17" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="0" t="n">
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="0" t="n">
         <f aca="false">YEAR(A17)</f>
         <v>1696</v>
       </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">I17-I16</f>
+        <v>11</v>
+      </c>
       <c r="K17" s="0" t="n">
-        <f aca="false">J17-J16</f>
-        <v>11</v>
-      </c>
-      <c r="L17" s="0" t="n">
         <f aca="false">C17-A17</f>
         <v>14</v>
       </c>
@@ -873,23 +851,22 @@
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="0" t="n">
+      <c r="F18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="0" t="n">
         <f aca="false">YEAR(A18)</f>
         <v>1697</v>
       </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">I18-I17</f>
+        <v>1</v>
+      </c>
       <c r="K18" s="0" t="n">
-        <f aca="false">J18-J17</f>
-        <v>1</v>
-      </c>
-      <c r="L18" s="0" t="n">
         <f aca="false">C18-A18</f>
         <v>303</v>
       </c>
@@ -910,25 +887,24 @@
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="n">
-        <v>3</v>
+      <c r="F19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I19" s="0" t="n">
         <f aca="false">YEAR(A19)</f>
         <v>1701</v>
       </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">I19-I18</f>
+        <v>4</v>
+      </c>
       <c r="K19" s="0" t="n">
-        <f aca="false">J19-J18</f>
-        <v>4</v>
-      </c>
-      <c r="L19" s="0" t="n">
         <f aca="false">C19-A19</f>
         <v>2212</v>
       </c>
@@ -949,25 +925,24 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="n">
-        <v>3</v>
+      <c r="F20" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I20" s="0" t="n">
         <f aca="false">YEAR(A20)</f>
         <v>1708</v>
       </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">I20-I19</f>
+        <v>7</v>
+      </c>
       <c r="K20" s="0" t="n">
-        <f aca="false">J20-J19</f>
-        <v>7</v>
-      </c>
-      <c r="L20" s="0" t="n">
         <f aca="false">C20-A20</f>
         <v>5441</v>
       </c>
@@ -988,23 +963,22 @@
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="0" t="n">
+      <c r="F21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="0" t="n">
         <f aca="false">YEAR(A21)</f>
         <v>1724</v>
       </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">I21-I20</f>
+        <v>16</v>
+      </c>
       <c r="K21" s="0" t="n">
-        <f aca="false">J21-J20</f>
-        <v>16</v>
-      </c>
-      <c r="L21" s="0" t="n">
         <f aca="false">C21-A21</f>
         <v>2035</v>
       </c>
@@ -1025,25 +999,24 @@
       <c r="E22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="n">
-        <v>3</v>
+      <c r="F22" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I22" s="0" t="n">
         <f aca="false">YEAR(A22)</f>
         <v>1732</v>
       </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">I22-I21</f>
+        <v>8</v>
+      </c>
       <c r="K22" s="0" t="n">
-        <f aca="false">J22-J21</f>
-        <v>8</v>
-      </c>
-      <c r="L22" s="0" t="n">
         <f aca="false">C22-A22</f>
         <v>1622</v>
       </c>
@@ -1064,23 +1037,22 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="n">
+      <c r="F23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="0" t="n">
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="0" t="n">
         <f aca="false">YEAR(A23)</f>
         <v>1742</v>
       </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">I23-I22</f>
+        <v>10</v>
+      </c>
       <c r="K23" s="0" t="n">
-        <f aca="false">J23-J22</f>
-        <v>10</v>
-      </c>
-      <c r="L23" s="0" t="n">
         <f aca="false">C23-A23</f>
         <v>366</v>
       </c>
@@ -1101,25 +1073,24 @@
       <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="n">
-        <v>3</v>
+      <c r="F24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="I24" s="0" t="n">
         <f aca="false">YEAR(A24)</f>
         <v>1744</v>
       </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">I24-I23</f>
+        <v>2</v>
+      </c>
       <c r="K24" s="0" t="n">
-        <f aca="false">J24-J23</f>
-        <v>2</v>
-      </c>
-      <c r="L24" s="0" t="n">
         <f aca="false">C24-A24</f>
         <v>5896</v>
       </c>
@@ -1140,25 +1111,24 @@
       <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="n">
-        <v>3</v>
+      <c r="F25" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I25" s="0" t="n">
         <f aca="false">YEAR(A25)</f>
         <v>1764</v>
       </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">I25-I24</f>
+        <v>20</v>
+      </c>
       <c r="K25" s="0" t="n">
-        <f aca="false">J25-J24</f>
-        <v>20</v>
-      </c>
-      <c r="L25" s="0" t="n">
         <f aca="false">C25-A25</f>
         <v>1229</v>
       </c>
@@ -1179,25 +1149,24 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="n">
-        <v>3</v>
+      <c r="F26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="I26" s="0" t="n">
         <f aca="false">YEAR(A26)</f>
         <v>1770</v>
       </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">I26-I25</f>
+        <v>6</v>
+      </c>
       <c r="K26" s="0" t="n">
-        <f aca="false">J26-J25</f>
-        <v>6</v>
-      </c>
-      <c r="L26" s="0" t="n">
         <f aca="false">C26-A26</f>
         <v>3540</v>
       </c>
@@ -1218,25 +1187,24 @@
       <c r="E27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="n">
-        <v>3</v>
+      <c r="F27" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="I27" s="0" t="n">
         <f aca="false">YEAR(A27)</f>
         <v>1783</v>
       </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">I27-I26</f>
+        <v>13</v>
+      </c>
       <c r="K27" s="0" t="n">
-        <f aca="false">J27-J26</f>
-        <v>13</v>
-      </c>
-      <c r="L27" s="0" t="n">
         <f aca="false">C27-A27</f>
         <v>3974</v>
       </c>
@@ -1257,25 +1225,24 @@
       <c r="E28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="n">
-        <v>3</v>
+      <c r="F28" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="I28" s="0" t="n">
         <f aca="false">YEAR(A28)</f>
         <v>1796</v>
       </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">I28-I27</f>
+        <v>13</v>
+      </c>
       <c r="K28" s="0" t="n">
-        <f aca="false">J28-J27</f>
-        <v>13</v>
-      </c>
-      <c r="L28" s="0" t="n">
         <f aca="false">C28-A28</f>
         <v>9791</v>
       </c>
@@ -1296,25 +1263,24 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="n">
-        <v>3</v>
+      <c r="F29" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="I29" s="0" t="n">
         <f aca="false">YEAR(A29)</f>
         <v>1824</v>
       </c>
+      <c r="J29" s="0" t="n">
+        <f aca="false">I29-I28</f>
+        <v>28</v>
+      </c>
       <c r="K29" s="0" t="n">
-        <f aca="false">J29-J28</f>
-        <v>28</v>
-      </c>
-      <c r="L29" s="0" t="n">
         <f aca="false">C29-A29</f>
         <v>3714</v>
       </c>
@@ -1335,25 +1301,24 @@
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="n">
-        <v>3</v>
+      <c r="F30" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I30" s="0" t="n">
         <f aca="false">YEAR(A30)</f>
         <v>1835</v>
       </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">I30-I29</f>
+        <v>11</v>
+      </c>
       <c r="K30" s="0" t="n">
-        <f aca="false">J30-J29</f>
-        <v>11</v>
-      </c>
-      <c r="L30" s="0" t="n">
         <f aca="false">C30-A30</f>
         <v>1449</v>
       </c>
@@ -1374,25 +1339,24 @@
       <c r="E31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="n">
+      <c r="F31" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="I31" s="0" t="n">
         <f aca="false">YEAR(A31)</f>
         <v>1841</v>
       </c>
+      <c r="J31" s="0" t="n">
+        <f aca="false">I31-I30</f>
+        <v>6</v>
+      </c>
       <c r="K31" s="0" t="n">
-        <f aca="false">J31-J30</f>
-        <v>6</v>
-      </c>
-      <c r="L31" s="0" t="n">
         <f aca="false">C31-A31</f>
         <v>3071</v>
       </c>
@@ -1413,25 +1377,24 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="n">
-        <v>3</v>
+      <c r="F32" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="I32" s="0" t="n">
         <f aca="false">YEAR(A32)</f>
         <v>1854</v>
       </c>
+      <c r="J32" s="0" t="n">
+        <f aca="false">I32-I31</f>
+        <v>13</v>
+      </c>
       <c r="K32" s="0" t="n">
-        <f aca="false">J32-J31</f>
-        <v>13</v>
-      </c>
-      <c r="L32" s="0" t="n">
         <f aca="false">C32-A32</f>
         <v>164</v>
       </c>
@@ -1452,25 +1415,24 @@
       <c r="E33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2" t="n">
-        <v>3</v>
+      <c r="F33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I33" s="0" t="n">
         <f aca="false">YEAR(A33)</f>
         <v>1855</v>
       </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">I33-I32</f>
+        <v>1</v>
+      </c>
       <c r="K33" s="0" t="n">
-        <f aca="false">J33-J32</f>
-        <v>1</v>
-      </c>
-      <c r="L33" s="0" t="n">
         <f aca="false">C33-A33</f>
         <v>2204</v>
       </c>
@@ -1491,25 +1453,24 @@
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="n">
+      <c r="F34" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="G34" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J34" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="I34" s="0" t="n">
         <f aca="false">YEAR(A34)</f>
         <v>1864</v>
       </c>
+      <c r="J34" s="0" t="n">
+        <f aca="false">I34-I33</f>
+        <v>9</v>
+      </c>
       <c r="K34" s="0" t="n">
-        <f aca="false">J34-J33</f>
-        <v>9</v>
-      </c>
-      <c r="L34" s="0" t="n">
         <f aca="false">C34-A34</f>
         <v>1751</v>
       </c>
@@ -1530,25 +1491,24 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2" t="n">
-        <v>3</v>
+      <c r="F35" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I35" s="0" t="n">
         <f aca="false">YEAR(A35)</f>
         <v>1870</v>
       </c>
+      <c r="J35" s="0" t="n">
+        <f aca="false">I35-I34</f>
+        <v>6</v>
+      </c>
       <c r="K35" s="0" t="n">
-        <f aca="false">J35-J34</f>
-        <v>6</v>
-      </c>
-      <c r="L35" s="0" t="n">
         <f aca="false">C35-A35</f>
         <v>502</v>
       </c>
@@ -1567,17 +1527,16 @@
       <c r="E36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2" t="n">
+      <c r="F36" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="I36" s="0" t="n">
+        <v>1874</v>
+      </c>
       <c r="J36" s="0" t="n">
-        <v>1874</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <f aca="false">J36-J35</f>
+        <f aca="false">I36-I35</f>
         <v>4</v>
       </c>
     </row>
@@ -1597,25 +1556,24 @@
       <c r="E37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2" t="n">
+      <c r="F37" s="2" t="n">
         <v>4</v>
       </c>
+      <c r="G37" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="I37" s="0" t="n">
         <f aca="false">YEAR(A37)</f>
         <v>1875</v>
       </c>
+      <c r="J37" s="0" t="n">
+        <f aca="false">I37-I36</f>
+        <v>1</v>
+      </c>
       <c r="K37" s="0" t="n">
-        <f aca="false">J37-J36</f>
-        <v>1</v>
-      </c>
-      <c r="L37" s="0" t="n">
         <f aca="false">C37-A37</f>
         <v>11072</v>
       </c>
@@ -1636,25 +1594,24 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="0" t="n">
+      <c r="F38" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="0" t="n">
         <f aca="false">YEAR(A38)</f>
         <v>1913</v>
       </c>
+      <c r="J38" s="0" t="n">
+        <f aca="false">I38-I37</f>
+        <v>38</v>
+      </c>
       <c r="K38" s="0" t="n">
-        <f aca="false">J38-J37</f>
-        <v>38</v>
-      </c>
-      <c r="L38" s="0" t="n">
         <f aca="false">C38-A38</f>
         <v>11231</v>
       </c>
@@ -1668,7 +1625,6 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
@@ -1678,8 +1634,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="5"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
@@ -1689,8 +1644,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="5"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
@@ -1701,7 +1655,6 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
@@ -1712,7 +1665,6 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
@@ -1720,10 +1672,9 @@
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="5"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
@@ -1733,8 +1684,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="5"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
@@ -1744,8 +1694,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="5"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
@@ -1753,10 +1702,9 @@
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="5"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
@@ -1764,10 +1712,9 @@
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="5"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
@@ -1777,8 +1724,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="5"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
@@ -1786,10 +1732,9 @@
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="5"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
@@ -1797,10 +1742,9 @@
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="5"/>
+      <c r="H51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="3"/>
@@ -1809,10 +1753,9 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
@@ -1822,8 +1765,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="5"/>
+      <c r="H53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
@@ -1831,10 +1773,9 @@
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="5"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
@@ -1844,8 +1785,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="5"/>
+      <c r="H55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
@@ -1855,8 +1795,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="5"/>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
@@ -1866,8 +1805,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="5"/>
+      <c r="H57" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/Vesuvius.xlsx
+++ b/data/Vesuvius.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
   <si>
-    <t xml:space="preserve">srart_date</t>
+    <t xml:space="preserve">start_date</t>
   </si>
   <si>
     <t xml:space="preserve">sdu</t>
@@ -262,11 +262,11 @@
   </sheetPr>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27:I30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.97"/>
